--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234BE93-BAA5-4750-8902-4B7628FCDF29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD476A4-1CDA-41D1-959D-DA1162673543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
   <si>
     <t>Product Name:</t>
   </si>
@@ -497,9 +497,6 @@
   </si>
   <si>
     <t>Write set_* method</t>
-  </si>
-  <si>
-    <t>Finished in Sprint 2</t>
   </si>
   <si>
     <t>Write entry dialog to display in GUI</t>
@@ -1189,16 +1186,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,22 +1800,22 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,7 +3147,7 @@
   <dimension ref="A1:AMK95"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3384,11 +3381,11 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 2")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -3408,7 +3405,7 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 3")</f>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -3452,7 +3449,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -3758,9 +3755,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="G30" s="18" t="s">
-        <v>154</v>
-      </c>
+      <c r="G30" s="18"/>
       <c r="H30" s="19" t="s">
         <v>31</v>
       </c>
@@ -3789,9 +3784,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
-        <v>154</v>
-      </c>
+      <c r="G31" s="18"/>
       <c r="H31" s="19" t="s">
         <v>57</v>
       </c>
@@ -6158,7 +6151,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6298,11 +6291,11 @@
       </c>
       <c r="B9" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -6316,7 +6309,7 @@
       </c>
       <c r="B10" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -6334,7 +6327,7 @@
       </c>
       <c r="B11" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -6352,7 +6345,7 @@
       </c>
       <c r="B12" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6370,7 +6363,7 @@
       </c>
       <c r="B13" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6388,7 +6381,7 @@
       </c>
       <c r="B14" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6503,7 +6496,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>150</v>
@@ -6519,7 +6512,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>150</v>
@@ -6535,10 +6528,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6553,7 +6546,9 @@
       <c r="D24" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="42" t="s">
+        <v>146</v>
+      </c>
       <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6565,7 +6560,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="43"/>
@@ -6579,7 +6574,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="43"/>
@@ -6593,7 +6588,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD476A4-1CDA-41D1-959D-DA1162673543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D2239-3335-46F7-A989-4A70C70327FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
   <si>
     <t>Product Name:</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Write on_about_click method</t>
   </si>
   <si>
-    <t>Write set_* method</t>
-  </si>
-  <si>
     <t>Write entry dialog to display in GUI</t>
   </si>
   <si>
@@ -511,10 +508,13 @@
     <t>Write main.cpp to test so far</t>
   </si>
   <si>
-    <t>Write view_* methods</t>
-  </si>
-  <si>
-    <t>Write insert_* methods</t>
+    <t>Completed Day 3</t>
+  </si>
+  <si>
+    <t>write all insert methods</t>
+  </si>
+  <si>
+    <t>write all view methi</t>
   </si>
 </sst>
 </file>
@@ -1803,19 +1803,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,7 +6151,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6309,11 +6309,11 @@
       </c>
       <c r="B10" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B11" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B12" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B13" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B14" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>150</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>150</v>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>150</v>
@@ -6544,10 +6544,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6560,9 +6560,11 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="42"/>
+        <v>158</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>146</v>
+      </c>
       <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6574,7 +6576,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="43"/>
@@ -6588,7 +6590,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D2239-3335-46F7-A989-4A70C70327FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F23F89-E310-4D4F-B568-DF2282EFE54E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="163">
   <si>
     <t>Product Name:</t>
   </si>
@@ -511,10 +511,19 @@
     <t>Completed Day 3</t>
   </si>
   <si>
-    <t>write all insert methods</t>
-  </si>
-  <si>
-    <t>write all view methi</t>
+    <t>write insert customer method</t>
+  </si>
+  <si>
+    <t>write all view customer method</t>
+  </si>
+  <si>
+    <t>write rest of the insert methods</t>
+  </si>
+  <si>
+    <t>write the rest of the view methods</t>
+  </si>
+  <si>
+    <t>Final touch up</t>
   </si>
 </sst>
 </file>
@@ -1794,13 +1803,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -6151,7 +6160,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6258,7 +6267,7 @@
       </c>
       <c r="B7" s="30">
         <f>COUNTA(D17:D995)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -6273,7 +6282,7 @@
       </c>
       <c r="B8" s="30">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -6291,7 +6300,7 @@
       </c>
       <c r="B9" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -6313,7 +6322,7 @@
       </c>
       <c r="C10" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -6563,7 +6572,7 @@
         <v>158</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6578,7 +6587,9 @@
       <c r="D26" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="42" t="s">
+        <v>157</v>
+      </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6590,18 +6601,24 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="42"/>
+        <v>160</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>146</v>
+      </c>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="41" t="s">
+        <v>161</v>
+      </c>
       <c r="E28" s="42"/>
       <c r="F28" s="43"/>
     </row>
@@ -6611,7 +6628,9 @@
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="41" t="s">
+        <v>162</v>
+      </c>
       <c r="E29" s="42"/>
       <c r="F29" s="43"/>
     </row>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F23F89-E310-4D4F-B568-DF2282EFE54E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3576E52-ABC4-4E5E-B4EB-9BF7ECCE9090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="Sprint 03 Backlog" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 04 Backlog" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="165">
   <si>
     <t>Product Name:</t>
   </si>
@@ -475,9 +478,6 @@
     <t>Finished in Sprint 1</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Completed Day 1</t>
   </si>
   <si>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>Final touch up</t>
+  </si>
+  <si>
+    <t>Completed Day 4</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>Program completed.</t>
   </si>
 </sst>
 </file>
@@ -814,7 +823,7 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -900,15 +909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -920,9 +923,6 @@
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -940,6 +940,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1195,16 +1199,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,25 +1496,25 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,6 +1715,313 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sprint 01 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5D2-443C-ACCD-13F348A3A1E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="41491855"/>
+        <c:axId val="49079480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41491855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49079480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49079480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41491855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -1815,16 +2126,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,7 +2331,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2334,7 +2645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2727,6 +3038,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1679760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1773360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6FF4DC-076D-4F74-B9AF-A45721F05D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2851,6 +3200,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Product Backlog"/>
+      <sheetName val="Sprint 01 Backlog"/>
+      <sheetName val="Sprint 02 Backlog"/>
+      <sheetName val="Sprint 03 Backlog"/>
+      <sheetName val="Sprint 04 Backlog"/>
+      <sheetName val="Sprint 05 Backlog"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="B7">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3155,8 +3568,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3179,14 +3592,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3197,14 +3610,14 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3243,18 +3656,18 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="42">
         <v>1001520302</v>
       </c>
       <c r="J5" s="2"/>
@@ -3390,11 +3803,11 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 2")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -3414,7 +3827,7 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 3")</f>
@@ -3438,7 +3851,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -3458,7 +3871,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -3530,10 +3943,10 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -3705,7 +4118,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>31</v>
@@ -3735,7 +4148,9 @@
         <v>5</v>
       </c>
       <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="H29" s="19" t="s">
         <v>31</v>
       </c>
@@ -3764,7 +4179,9 @@
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="H30" s="19" t="s">
         <v>31</v>
       </c>
@@ -3793,7 +4210,9 @@
         <v>1</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="H31" s="19" t="s">
         <v>57</v>
       </c>
@@ -4926,1207 +5345,1069 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="51.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" customWidth="1"/>
-    <col min="6" max="6" width="51.88671875" style="29" customWidth="1"/>
-    <col min="7" max="1025" width="11.5546875"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="33" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:1024" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="29">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="32"/>
+      <c r="F1" s="29"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>43893</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="34">
-        <f>B2+21</f>
-        <v>43914</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="32">
+        <f>B2+14</f>
+        <v>43907</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32"/>
+    <row r="5" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
         <v>16</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>16</v>
-      </c>
-      <c r="C8" s="30">
+        <v>13</v>
+      </c>
+      <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C10" s="30">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="32"/>
+    <row r="15" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
-        <v>127</v>
+      <c r="E19" s="44" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="44" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="E21" s="44" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="E22" s="44" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="44" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="44" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="E25" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="44" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="44" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="44" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="E29" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="44" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
+      <c r="E31" s="44" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="E32" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>17</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="B33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>18</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="B34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>19</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="B35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>20</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="B36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>21</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="B37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>22</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="B38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>23</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="B39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>24</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="B40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>25</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="B41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>26</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="B42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>27</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="B43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>28</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="B44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>29</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="B45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>30</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="B46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>31</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="B47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>32</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="B48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>33</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="B49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>34</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="B50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>35</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="B51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>36</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="B52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>37</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="B53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>38</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="B54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="44"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>39</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="B55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>40</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="B56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="44"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>41</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="B57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>42</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="B58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>43</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="B59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>44</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="B60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>45</v>
       </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="B61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>46</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="B62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>47</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="B63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>48</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="B64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>49</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="B65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="44"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>50</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="B66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>51</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="B67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="44"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>52</v>
       </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="B68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="44"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>53</v>
       </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="B69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>54</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="B70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="44"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>55</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="B71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>56</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="B72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>57</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="B73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>58</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="B74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>59</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="B75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>60</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="B76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>61</v>
       </c>
-      <c r="B77" s="40"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="B77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>62</v>
       </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="B78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>63</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="B79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="44"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>64</v>
       </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="B80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="44"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>65</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="B81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="44"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>66</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="43"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="B82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>67</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="B83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>68</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="43"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="B84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>69</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="43"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="B85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>70</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="43"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="B86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>71</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="43"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="B87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>72</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="B88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>73</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="B89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>74</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="43"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="B90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>75</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="43"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="B91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="44"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>76</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="43"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="B92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="44"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>77</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="43"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="B93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>78</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="43"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="B94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>79</v>
       </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="43"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="B95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>80</v>
       </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="43"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="B96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>81</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="43"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="B97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>82</v>
       </c>
-      <c r="B98" s="40"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="43"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="B98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>83</v>
       </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="43"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="B99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>84</v>
       </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{21B8FDA3-3543-4A38-94CF-A2013F10031F}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" sqref="C17:C100" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" sqref="C17:C100" xr:uid="{3C34B089-EC5B-43BB-9100-BA46A9E2CF63}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" sqref="D17:D100" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" sqref="D17:D100" xr:uid="{D9D36134-C257-418D-9484-0FEDFB81CDC5}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0100-000004000000}">
-      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7"</formula1>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{4F5CC480-6417-4E30-8D13-F6680D1E51CD}">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{00000000-0002-0000-0100-000005000000}">
-      <formula1>0</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{C6847EF6-55DE-4E8A-98BA-41E18CA884F3}">
+      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6140,9 +6421,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" xr:uid="{91F996DE-6F64-4983-86D4-4DBECF61EC0E}">
           <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$95</xm:f>
+            <xm:f>'C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\[Scrum_ELSA.xlsx]Product Backlog'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -6159,8 +6440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6174,261 +6455,261 @@
     <col min="7" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="33" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:1024" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="29">
         <f>'Sprint 01 Backlog'!B1+1</f>
         <v>2</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <f>'Sprint 01 Backlog'!B3</f>
-        <v>43914</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="35" t="s">
+        <v>43907</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <f>B2+7</f>
-        <v>43921</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+        <v>43914</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+    <row r="5" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
         <v>13</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>12</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>1</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>6</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>3</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="29">
+        <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>3</v>
       </c>
-      <c r="C11" s="30">
-        <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+    <row r="15" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6436,913 +6717,919 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="43"/>
+      <c r="D17" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="43"/>
+      <c r="D18" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="D19" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="E19" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="43"/>
+      <c r="D20" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="43"/>
+      <c r="D21" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="43"/>
+      <c r="D22" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="43"/>
+      <c r="D23" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="43"/>
+      <c r="D24" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="E25" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>44</v>
+      <c r="B26" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="43"/>
+      <c r="D26" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="43"/>
+      <c r="D27" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="D28" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="40" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="40"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="40"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="40"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="40"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="40"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="40"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="40"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="40"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="40"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="40"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="40"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="40"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="40"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="40"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="40"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="40"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="40"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="40"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="40"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="40"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="40"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="40"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="40"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="40"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="40"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="40"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="40"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="40"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="40"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="40"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="40"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="40"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="40"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="40"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="40"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="43"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="40"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="43"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="40"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="40"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="43"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="40"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="40"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="43"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="43"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="40"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="40"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="40"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="40"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="43"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="40"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="43"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="40"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="43"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="40"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="43"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="40"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="43"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="40"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="43"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="43"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="40"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="40"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="43"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="40"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="43"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="40"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="43"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="40"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="43"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -7411,261 +7698,261 @@
     <col min="7" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="33" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:1024" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="29">
         <f>'Sprint 02 Backlog'!B1+1</f>
         <v>3</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <f>'Sprint 02 Backlog'!B2+7</f>
-        <v>43921</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="35" t="s">
+        <v>43914</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <f>B2+7</f>
-        <v>43928</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+        <v>43921</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+    <row r="5" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>0</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+    <row r="15" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7673,843 +7960,843 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="40"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="40"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="40"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="40"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="40"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="40"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="40"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="40"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="40"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="40"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="40"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="40"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="40"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="40"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="40"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="40"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="40"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="40"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="40"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="40"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="40"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="40"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="40"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="40"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="40"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="40"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="40"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="40"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="40"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="40"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="40"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="40"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="40"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="40"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="40"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="43"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="40"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="43"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="40"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="40"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="43"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="40"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="40"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="43"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="43"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="40"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="40"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="40"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="40"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="43"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="40"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="43"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="40"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="43"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="40"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="43"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="40"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="43"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="40"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="43"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="43"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="40"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="40"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="43"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="40"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="43"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="40"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="43"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="40"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="43"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -8578,261 +8865,261 @@
     <col min="7" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="33" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:1024" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="29">
         <f>'Sprint 03 Backlog'!B1+1</f>
         <v>4</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <f>'Sprint 03 Backlog'!B2+14</f>
-        <v>43935</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="35" t="s">
+        <v>43928</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <f>B2+14</f>
-        <v>43949</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+        <v>43942</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+    <row r="5" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>0</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+    <row r="15" spans="1:1024" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8840,13 +9127,13 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8854,831 +9141,831 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="40"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="40"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="40"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="40"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="40"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="40"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="40"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="40"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="40"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="40"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="40"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="40"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="40"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="40"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="40"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="40"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="40"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="40"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="40"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="40"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="40"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="40"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="40"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="40"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="40"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="40"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="40"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="40"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="40"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="40"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="40"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="40"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="40"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="40"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="40"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="43"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="40"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="43"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="40"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="40"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="43"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="40"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="40"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="43"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="43"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="40"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="40"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="40"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="40"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="43"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="40"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="43"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="40"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="43"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="40"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="43"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="40"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="43"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="40"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="43"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="43"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="40"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="40"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="43"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="40"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="43"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="40"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="43"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="40"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="43"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3576E52-ABC4-4E5E-B4EB-9BF7ECCE9090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D68B00-5BB5-4AE4-A7F3-F4DBD4618D62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="170">
   <si>
     <t>Product Name:</t>
   </si>
@@ -533,6 +533,21 @@
   </si>
   <si>
     <t>Program completed.</t>
+  </si>
+  <si>
+    <t>Create save method and matching constructor to each class</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>Install I/O Framework and test</t>
+  </si>
+  <si>
+    <t>Adding dialog box to open and save file</t>
+  </si>
+  <si>
+    <t>Write call functions to dialog</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2365,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2428,28 +2443,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,7 +2514,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2573,7 +2588,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3131,9 +3146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>518400</xdr:colOff>
+      <xdr:colOff>438866</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>136290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3568,8 +3583,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6440,8 +6455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7683,8 +7698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7692,7 +7707,7 @@
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.5546875"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="51.88671875" customWidth="1"/>
     <col min="7" max="1025" width="11.5546875"/>
@@ -7791,7 +7806,7 @@
       </c>
       <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -7806,11 +7821,11 @@
       </c>
       <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -7824,7 +7839,7 @@
       </c>
       <c r="B9" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -7842,7 +7857,7 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7860,7 +7875,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7878,7 +7893,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7896,7 +7911,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7914,7 +7929,7 @@
       </c>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -7956,45 +7971,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="39"/>
+        <v>165</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>146</v>
+      </c>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>146</v>
+      </c>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="38" t="s">
+        <v>169</v>
+      </c>
       <c r="E20" s="39"/>
       <c r="F20" s="40"/>
     </row>
@@ -8002,7 +8037,9 @@
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D68B00-5BB5-4AE4-A7F3-F4DBD4618D62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CE005-CE9B-454D-B05C-89C099C6E7DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="173">
   <si>
     <t>Product Name:</t>
   </si>
@@ -548,6 +548,15 @@
   </si>
   <si>
     <t>Write call functions to dialog</t>
+  </si>
+  <si>
+    <t>Write save as function</t>
+  </si>
+  <si>
+    <t>write save functions for each classes</t>
+  </si>
+  <si>
+    <t>write load methods for each classes</t>
   </si>
 </sst>
 </file>
@@ -2443,10 +2452,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -3146,9 +3155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438866</xdr:colOff>
+      <xdr:colOff>435056</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>136290</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7699,7 +7708,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7806,7 +7815,7 @@
       </c>
       <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -7821,7 +7830,7 @@
       </c>
       <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7843,7 +7852,7 @@
       </c>
       <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -8015,7 +8024,7 @@
         <v>168</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F19" s="40"/>
     </row>
@@ -8030,7 +8039,9 @@
       <c r="D20" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8038,30 +8049,44 @@
         <v>5</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>172</v>
+      </c>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
     </row>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CE005-CE9B-454D-B05C-89C099C6E7DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3428488-8FA5-42A1-BC30-30C1857484CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
   <si>
     <t>Product Name:</t>
   </si>
@@ -553,10 +553,28 @@
     <t>Write save as function</t>
   </si>
   <si>
-    <t>write save functions for each classes</t>
-  </si>
-  <si>
-    <t>write load methods for each classes</t>
+    <t>write save functions for customer class</t>
+  </si>
+  <si>
+    <t>write load methods for customer class</t>
+  </si>
+  <si>
+    <t>write save functions for options class</t>
+  </si>
+  <si>
+    <t>write save functions for desktop class</t>
+  </si>
+  <si>
+    <t>write save functions for order class</t>
+  </si>
+  <si>
+    <t>write load methods for option class</t>
+  </si>
+  <si>
+    <t>write load methods for desktop class</t>
+  </si>
+  <si>
+    <t>write load methods for order class</t>
   </si>
 </sst>
 </file>
@@ -2452,28 +2470,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,7 +3611,7 @@
   <dimension ref="A1:AMK95"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7707,8 +7725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7815,7 +7833,7 @@
       </c>
       <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -7830,7 +7848,7 @@
       </c>
       <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7848,11 +7866,11 @@
       </c>
       <c r="B9" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -7866,7 +7884,7 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7884,7 +7902,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7902,7 +7920,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7920,7 +7938,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7938,7 +7956,7 @@
       </c>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8072,7 +8090,7 @@
         <v>171</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -8087,26 +8105,38 @@
       <c r="D23" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="D24" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="38" t="s">
+        <v>176</v>
+      </c>
       <c r="E25" s="39"/>
       <c r="F25" s="40"/>
     </row>
@@ -8114,9 +8144,13 @@
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>174</v>
+      </c>
       <c r="E26" s="39"/>
       <c r="F26" s="40"/>
     </row>
@@ -8124,9 +8158,13 @@
       <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="38" t="s">
+        <v>177</v>
+      </c>
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
     </row>
@@ -8134,9 +8172,13 @@
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="38"/>
+      <c r="D28" s="38" t="s">
+        <v>175</v>
+      </c>
       <c r="E28" s="39"/>
       <c r="F28" s="40"/>
     </row>
@@ -8144,9 +8186,13 @@
       <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="38"/>
+      <c r="D29" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="E29" s="39"/>
       <c r="F29" s="40"/>
     </row>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3428488-8FA5-42A1-BC30-30C1857484CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F56C15-0046-432F-B23E-6FFA0EAEEB1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="180">
   <si>
     <t>Product Name:</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>write load methods for order class</t>
+  </si>
+  <si>
+    <t>testing error</t>
   </si>
 </sst>
 </file>
@@ -2470,28 +2473,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3610,8 +3613,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4281,7 +4284,9 @@
         <v>13</v>
       </c>
       <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="H32" s="19" t="s">
         <v>61</v>
       </c>
@@ -4310,7 +4315,9 @@
         <v>5</v>
       </c>
       <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="H33" s="19" t="s">
         <v>61</v>
       </c>
@@ -4339,7 +4346,9 @@
         <v>8</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="G34" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="H34" s="19" t="s">
         <v>61</v>
       </c>
@@ -7725,8 +7734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7833,7 +7842,7 @@
       </c>
       <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -7848,7 +7857,7 @@
       </c>
       <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7866,11 +7875,11 @@
       </c>
       <c r="B9" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -7884,7 +7893,7 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7902,7 +7911,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7920,7 +7929,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7938,7 +7947,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7956,7 +7965,7 @@
       </c>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8122,7 +8131,7 @@
         <v>173</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -8137,7 +8146,9 @@
       <c r="D25" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8151,7 +8162,9 @@
       <c r="D26" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8165,7 +8178,9 @@
       <c r="D27" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,7 +8194,9 @@
       <c r="D28" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8193,7 +8210,9 @@
       <c r="D29" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8202,7 +8221,9 @@
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="38"/>
+      <c r="D30" s="38" t="s">
+        <v>179</v>
+      </c>
       <c r="E30" s="39"/>
       <c r="F30" s="40"/>
     </row>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F56C15-0046-432F-B23E-6FFA0EAEEB1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A537D-4D3D-4F77-8C3D-712BD3FA12CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="180">
   <si>
     <t>Product Name:</t>
   </si>
@@ -2482,19 +2482,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7735,7 +7735,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7893,11 +7893,11 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8195,7 +8195,7 @@
         <v>175</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -8211,7 +8211,7 @@
         <v>178</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -8224,7 +8224,9 @@
       <c r="D30" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A537D-4D3D-4F77-8C3D-712BD3FA12CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F8DF3-868F-4D2D-8249-BF42C29B3C58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -538,9 +538,6 @@
     <t>Create save method and matching constructor to each class</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Install I/O Framework and test</t>
   </si>
   <si>
@@ -578,6 +575,9 @@
   </si>
   <si>
     <t>testing error</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -1247,13 +1247,13 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,19 +2482,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,8 +3613,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3872,11 +3872,11 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 3")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>61</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>61</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>61</v>
@@ -7734,8 +7734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7893,11 +7893,11 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>146</v>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>149</v>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>149</v>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>149</v>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>149</v>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>149</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>149</v>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>149</v>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>149</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>149</v>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>156</v>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>156</v>
@@ -8222,10 +8222,10 @@
       <c r="B30" s="37"/>
       <c r="C30" s="1"/>
       <c r="D30" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F30" s="40"/>
     </row>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F8DF3-868F-4D2D-8249-BF42C29B3C58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12434935-C9E9-4708-AB98-D4DFE0BFD777}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="182">
   <si>
     <t>Product Name:</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Ensure ALL CODE is on GitHub by deadline!</t>
   </si>
   <si>
-    <t>--&gt; Add tasks to complete each feature for this sprint</t>
-  </si>
-  <si>
     <t>Night Coder</t>
   </si>
   <si>
@@ -578,6 +575,15 @@
   </si>
   <si>
     <t>Finished in Sprint 3</t>
+  </si>
+  <si>
+    <t>In Test</t>
+  </si>
+  <si>
+    <t>Replacing customer insertion dialog</t>
+  </si>
+  <si>
+    <t>In Work</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2715,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2858,7 +2864,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2932,7 +2938,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3613,8 +3619,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3656,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -3702,7 +3708,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -3710,7 +3716,7 @@
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" s="42">
         <v>1001520302</v>
@@ -4047,7 +4053,7 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>31</v>
@@ -4076,7 +4082,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>35</v>
@@ -4105,7 +4111,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>31</v>
@@ -4134,7 +4140,7 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>31</v>
@@ -4163,7 +4169,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>31</v>
@@ -4194,7 +4200,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>31</v>
@@ -4225,7 +4231,7 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>31</v>
@@ -4256,7 +4262,7 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>57</v>
@@ -4285,7 +4291,7 @@
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>61</v>
@@ -4316,7 +4322,7 @@
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>61</v>
@@ -4347,7 +4353,7 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>61</v>
@@ -4404,7 +4410,9 @@
         <v>8</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="H36" s="19" t="s">
         <v>31</v>
       </c>
@@ -5676,7 +5684,7 @@
         <v>122</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5693,7 +5701,7 @@
         <v>124</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
         <v>125</v>
@@ -5710,7 +5718,7 @@
         <v>126</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5724,7 +5732,7 @@
         <v>128</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5738,7 +5746,7 @@
         <v>129</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5752,7 +5760,7 @@
         <v>130</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5766,7 +5774,7 @@
         <v>131</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5780,7 +5788,7 @@
         <v>132</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5794,7 +5802,7 @@
         <v>133</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5808,7 +5816,7 @@
         <v>134</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5822,7 +5830,7 @@
         <v>135</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,7 +5844,7 @@
         <v>136</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5850,7 +5858,7 @@
         <v>137</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5864,7 +5872,7 @@
         <v>138</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5878,7 +5886,7 @@
         <v>139</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5892,7 +5900,7 @@
         <v>140</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6773,10 +6781,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -6789,10 +6797,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -6805,10 +6813,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="40"/>
     </row>
@@ -6821,10 +6829,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -6837,10 +6845,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -6853,10 +6861,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -6869,10 +6877,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -6885,10 +6893,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -6901,10 +6909,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -6917,10 +6925,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -6933,10 +6941,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -6949,10 +6957,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -6963,13 +6971,13 @@
       <c r="B29" s="37"/>
       <c r="C29" s="1"/>
       <c r="D29" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>162</v>
-      </c>
       <c r="F29" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8016,10 +8024,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -8032,10 +8040,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -8048,10 +8056,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="40"/>
     </row>
@@ -8064,10 +8072,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -8080,10 +8088,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -8096,10 +8104,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -8112,10 +8120,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -8128,10 +8136,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -8144,10 +8152,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -8160,10 +8168,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -8176,10 +8184,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -8192,10 +8200,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -8208,10 +8216,10 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -8222,10 +8230,10 @@
       <c r="B30" s="37"/>
       <c r="C30" s="1"/>
       <c r="D30" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -8981,8 +8989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9258,12 +9266,16 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="39"/>
+        <v>180</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>181</v>
+      </c>
       <c r="F17" s="40" t="s">
         <v>127</v>
       </c>

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12434935-C9E9-4708-AB98-D4DFE0BFD777}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7723D8D-052F-4E7A-9D78-15EF803C9684}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="183">
   <si>
     <t>Product Name:</t>
   </si>
@@ -577,13 +577,16 @@
     <t>Finished in Sprint 3</t>
   </si>
   <si>
-    <t>In Test</t>
-  </si>
-  <si>
     <t>Replacing customer insertion dialog</t>
   </si>
   <si>
     <t>In Work</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 4</t>
+  </si>
+  <si>
+    <t>creating new option for peripherals</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1259,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2793,7 +2796,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3620,7 +3623,7 @@
   <dimension ref="A1:AMK95"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3902,11 +3905,11 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -3922,11 +3925,11 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -4383,7 +4386,9 @@
         <v>21</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="H35" s="19" t="s">
         <v>71</v>
       </c>
@@ -4411,7 +4416,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>31</v>
@@ -8990,7 +8995,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9097,7 +9102,7 @@
       </c>
       <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -9116,7 +9121,7 @@
       </c>
       <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -9271,10 +9276,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>127</v>
@@ -9284,10 +9289,16 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7723D8D-052F-4E7A-9D78-15EF803C9684}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F54859-D6D4-480C-A8C2-56E17A9596AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="186">
   <si>
     <t>Product Name:</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>creating new option for peripherals</t>
+  </si>
+  <si>
+    <t>for class option</t>
+  </si>
+  <si>
+    <t>diplay cpu option</t>
+  </si>
+  <si>
+    <t>display disk option</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1268,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,28 +2805,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3622,8 +3631,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3905,11 +3914,11 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -3925,11 +3934,11 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -4387,7 +4396,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>71</v>
@@ -4485,7 +4494,9 @@
         <v>13</v>
       </c>
       <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="H40" s="19" t="s">
         <v>71</v>
       </c>
@@ -4514,7 +4525,9 @@
         <v>5</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="H41" s="19" t="s">
         <v>71</v>
       </c>
@@ -4568,7 +4581,9 @@
         <v>21</v>
       </c>
       <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>181</v>
+      </c>
       <c r="H43" s="19" t="s">
         <v>31</v>
       </c>
@@ -8994,8 +9009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9102,7 +9117,7 @@
       </c>
       <c r="B7" s="29">
         <f>COUNTA(D17:D995)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -9117,7 +9132,7 @@
       </c>
       <c r="B8" s="29">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -9135,11 +9150,11 @@
       </c>
       <c r="B9" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -9153,7 +9168,7 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -9171,7 +9186,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -9189,7 +9204,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -9207,7 +9222,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -9225,7 +9240,7 @@
       </c>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -9297,7 +9312,7 @@
         <v>182</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -9305,40 +9320,64 @@
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>148</v>
+      </c>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>148</v>
+      </c>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Dropbox\CLASS UTA\Spring 2020\CSE 1325\VMShared\cse1325\elsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F54859-D6D4-480C-A8C2-56E17A9596AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F4AA6C-1CAC-4A42-97ED-F37E1741D3EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
   <si>
     <t>Product Name:</t>
   </si>
@@ -578,9 +578,6 @@
   </si>
   <si>
     <t>Replacing customer insertion dialog</t>
-  </si>
-  <si>
-    <t>In Work</t>
   </si>
   <si>
     <t>Finished in Sprint 4</t>
@@ -1268,10 +1265,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,22 +2808,22 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3631,8 +3628,8 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3914,11 +3911,11 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -3934,11 +3931,11 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -4396,7 +4393,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>71</v>
@@ -4425,7 +4422,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>31</v>
@@ -4582,7 +4579,7 @@
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>31</v>
@@ -9009,7 +9006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -9150,11 +9147,11 @@
       </c>
       <c r="B9" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -9168,7 +9165,7 @@
       </c>
       <c r="B10" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -9186,7 +9183,7 @@
       </c>
       <c r="B11" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -9204,7 +9201,7 @@
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -9222,7 +9219,7 @@
       </c>
       <c r="B13" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -9240,7 +9237,7 @@
       </c>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="29">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -9309,7 +9306,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>148</v>
@@ -9325,7 +9322,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>148</v>
@@ -9341,7 +9338,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>148</v>
@@ -9357,10 +9354,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -9373,10 +9370,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F22" s="40"/>
     </row>
